--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6143853333333333</v>
+        <v>0.411947</v>
       </c>
       <c r="H2">
-        <v>1.843156</v>
+        <v>1.235841</v>
       </c>
       <c r="I2">
-        <v>0.2275345612164304</v>
+        <v>0.1580726014960503</v>
       </c>
       <c r="J2">
-        <v>0.2275345612164304</v>
+        <v>0.1580726014960503</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.05819233333333334</v>
+        <v>2.979284</v>
       </c>
       <c r="N2">
-        <v>0.174577</v>
+        <v>8.937851999999999</v>
       </c>
       <c r="O2">
-        <v>0.01674105879954439</v>
+        <v>0.8766595676794255</v>
       </c>
       <c r="P2">
-        <v>0.01674105879954439</v>
+        <v>0.8766595676794257</v>
       </c>
       <c r="Q2">
-        <v>0.03575251611244445</v>
+        <v>1.227307105948</v>
       </c>
       <c r="R2">
-        <v>0.321772645012</v>
+        <v>11.045763953532</v>
       </c>
       <c r="S2">
-        <v>0.003809169468252792</v>
+        <v>0.1385758584894896</v>
       </c>
       <c r="T2">
-        <v>0.003809169468252792</v>
+        <v>0.1385758584894896</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6143853333333333</v>
+        <v>0.411947</v>
       </c>
       <c r="H3">
-        <v>1.843156</v>
+        <v>1.235841</v>
       </c>
       <c r="I3">
-        <v>0.2275345612164304</v>
+        <v>0.1580726014960503</v>
       </c>
       <c r="J3">
-        <v>0.2275345612164304</v>
+        <v>0.1580726014960503</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.979284</v>
+        <v>0.4191663333333334</v>
       </c>
       <c r="N3">
-        <v>8.937851999999999</v>
+        <v>1.257499</v>
       </c>
       <c r="O3">
-        <v>0.8570951836360194</v>
+        <v>0.1233404323205744</v>
       </c>
       <c r="P3">
-        <v>0.8570951836360196</v>
+        <v>0.1233404323205744</v>
       </c>
       <c r="Q3">
-        <v>1.830428393434667</v>
+        <v>0.1726743135176667</v>
       </c>
       <c r="R3">
-        <v>16.473855540912</v>
+        <v>1.554068821659</v>
       </c>
       <c r="S3">
-        <v>0.1950187765293375</v>
+        <v>0.01949674300656072</v>
       </c>
       <c r="T3">
-        <v>0.1950187765293375</v>
+        <v>0.01949674300656072</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6143853333333333</v>
+        <v>1.359782333333333</v>
       </c>
       <c r="H4">
-        <v>1.843156</v>
+        <v>4.079347</v>
       </c>
       <c r="I4">
-        <v>0.2275345612164304</v>
+        <v>0.5217766627706223</v>
       </c>
       <c r="J4">
-        <v>0.2275345612164304</v>
+        <v>0.5217766627706222</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3440976666666667</v>
+        <v>2.979284</v>
       </c>
       <c r="N4">
-        <v>1.032293</v>
+        <v>8.937851999999999</v>
       </c>
       <c r="O4">
-        <v>0.09899172176952332</v>
+        <v>0.8766595676794255</v>
       </c>
       <c r="P4">
-        <v>0.09899172176952334</v>
+        <v>0.8766595676794257</v>
       </c>
       <c r="Q4">
-        <v>0.2114085596342222</v>
+        <v>4.051177749182667</v>
       </c>
       <c r="R4">
-        <v>1.902677036708</v>
+        <v>36.460599742644</v>
       </c>
       <c r="S4">
-        <v>0.02252403797688745</v>
+        <v>0.4574205036097072</v>
       </c>
       <c r="T4">
-        <v>0.02252403797688745</v>
+        <v>0.4574205036097071</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,51 +723,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6143853333333333</v>
+        <v>1.359782333333333</v>
       </c>
       <c r="H5">
-        <v>1.843156</v>
+        <v>4.079347</v>
       </c>
       <c r="I5">
-        <v>0.2275345612164304</v>
+        <v>0.5217766627706223</v>
       </c>
       <c r="J5">
-        <v>0.2275345612164304</v>
+        <v>0.5217766627706222</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.09445066666666667</v>
+        <v>0.4191663333333334</v>
       </c>
       <c r="N5">
-        <v>0.283352</v>
+        <v>1.257499</v>
       </c>
       <c r="O5">
-        <v>0.02717203579491285</v>
+        <v>0.1233404323205744</v>
       </c>
       <c r="P5">
-        <v>0.02717203579491285</v>
+        <v>0.1233404323205744</v>
       </c>
       <c r="Q5">
-        <v>0.05802910432355556</v>
+        <v>0.5699749747947779</v>
       </c>
       <c r="R5">
-        <v>0.522261938912</v>
+        <v>5.129774773153001</v>
       </c>
       <c r="S5">
-        <v>0.006182577241952635</v>
+        <v>0.06435615916091508</v>
       </c>
       <c r="T5">
-        <v>0.006182577241952636</v>
+        <v>0.06435615916091508</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.359782333333333</v>
+        <v>0.4807283333333334</v>
       </c>
       <c r="H6">
-        <v>4.079347</v>
+        <v>1.442185</v>
       </c>
       <c r="I6">
-        <v>0.503588643443399</v>
+        <v>0.1844654245882613</v>
       </c>
       <c r="J6">
-        <v>0.503588643443399</v>
+        <v>0.1844654245882613</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05819233333333334</v>
+        <v>2.979284</v>
       </c>
       <c r="N6">
-        <v>0.174577</v>
+        <v>8.937851999999999</v>
       </c>
       <c r="O6">
-        <v>0.01674105879954439</v>
+        <v>0.8766595676794255</v>
       </c>
       <c r="P6">
-        <v>0.01674105879954439</v>
+        <v>0.8766595676794257</v>
       </c>
       <c r="Q6">
-        <v>0.07912890680211113</v>
+        <v>1.432226231846667</v>
       </c>
       <c r="R6">
-        <v>0.7121601612190001</v>
+        <v>12.89003608662</v>
       </c>
       <c r="S6">
-        <v>0.008430607090668736</v>
+        <v>0.1617133793713468</v>
       </c>
       <c r="T6">
-        <v>0.008430607090668736</v>
+        <v>0.1617133793713468</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,25 +838,25 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.359782333333333</v>
+        <v>0.4807283333333334</v>
       </c>
       <c r="H7">
-        <v>4.079347</v>
+        <v>1.442185</v>
       </c>
       <c r="I7">
-        <v>0.503588643443399</v>
+        <v>0.1844654245882613</v>
       </c>
       <c r="J7">
-        <v>0.503588643443399</v>
+        <v>0.1844654245882613</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.979284</v>
+        <v>0.4191663333333334</v>
       </c>
       <c r="N7">
-        <v>8.937851999999999</v>
+        <v>1.257499</v>
       </c>
       <c r="O7">
-        <v>0.8570951836360194</v>
+        <v>0.1233404323205744</v>
       </c>
       <c r="P7">
-        <v>0.8570951836360196</v>
+        <v>0.1233404323205744</v>
       </c>
       <c r="Q7">
-        <v>4.051177749182667</v>
+        <v>0.2015051328127778</v>
       </c>
       <c r="R7">
-        <v>36.460599742644</v>
+        <v>1.813546195315</v>
       </c>
       <c r="S7">
-        <v>0.431623400829134</v>
+        <v>0.02275204521691445</v>
       </c>
       <c r="T7">
-        <v>0.4316234008291341</v>
+        <v>0.02275204521691445</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.359782333333333</v>
+        <v>0.3536043333333334</v>
       </c>
       <c r="H8">
-        <v>4.079347</v>
+        <v>1.060813</v>
       </c>
       <c r="I8">
-        <v>0.503588643443399</v>
+        <v>0.1356853111450661</v>
       </c>
       <c r="J8">
-        <v>0.503588643443399</v>
+        <v>0.1356853111450661</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3440976666666667</v>
+        <v>2.979284</v>
       </c>
       <c r="N8">
-        <v>1.032293</v>
+        <v>8.937851999999999</v>
       </c>
       <c r="O8">
-        <v>0.09899172176952332</v>
+        <v>0.8766595676794255</v>
       </c>
       <c r="P8">
-        <v>0.09899172176952334</v>
+        <v>0.8766595676794257</v>
       </c>
       <c r="Q8">
-        <v>0.4678979280745556</v>
+        <v>1.053487732630667</v>
       </c>
       <c r="R8">
-        <v>4.211081352671001</v>
+        <v>9.481389593675999</v>
       </c>
       <c r="S8">
-        <v>0.04985110687804065</v>
+        <v>0.118949826208882</v>
       </c>
       <c r="T8">
-        <v>0.04985110687804065</v>
+        <v>0.118949826208882</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,542 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.359782333333333</v>
+        <v>0.3536043333333334</v>
       </c>
       <c r="H9">
-        <v>4.079347</v>
+        <v>1.060813</v>
       </c>
       <c r="I9">
-        <v>0.503588643443399</v>
+        <v>0.1356853111450661</v>
       </c>
       <c r="J9">
-        <v>0.503588643443399</v>
+        <v>0.1356853111450661</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.09445066666666667</v>
+        <v>0.4191663333333334</v>
       </c>
       <c r="N9">
-        <v>0.283352</v>
+        <v>1.257499</v>
       </c>
       <c r="O9">
-        <v>0.02717203579491285</v>
+        <v>0.1233404323205744</v>
       </c>
       <c r="P9">
-        <v>0.02717203579491285</v>
+        <v>0.1233404323205744</v>
       </c>
       <c r="Q9">
-        <v>0.1284323479048889</v>
+        <v>0.1482190318541111</v>
       </c>
       <c r="R9">
-        <v>1.155891131144</v>
+        <v>1.333971286687</v>
       </c>
       <c r="S9">
-        <v>0.01368352864555564</v>
+        <v>0.0167354849361841</v>
       </c>
       <c r="T9">
-        <v>0.01368352864555564</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.4195926666666667</v>
-      </c>
-      <c r="H10">
-        <v>1.258778</v>
-      </c>
-      <c r="I10">
-        <v>0.1553940631714819</v>
-      </c>
-      <c r="J10">
-        <v>0.1553940631714819</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.05819233333333334</v>
-      </c>
-      <c r="N10">
-        <v>0.174577</v>
-      </c>
-      <c r="O10">
-        <v>0.01674105879954439</v>
-      </c>
-      <c r="P10">
-        <v>0.01674105879954439</v>
-      </c>
-      <c r="Q10">
-        <v>0.0244170763228889</v>
-      </c>
-      <c r="R10">
-        <v>0.2197536869060001</v>
-      </c>
-      <c r="S10">
-        <v>0.002601461148653892</v>
-      </c>
-      <c r="T10">
-        <v>0.002601461148653892</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.4195926666666667</v>
-      </c>
-      <c r="H11">
-        <v>1.258778</v>
-      </c>
-      <c r="I11">
-        <v>0.1553940631714819</v>
-      </c>
-      <c r="J11">
-        <v>0.1553940631714819</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.979284</v>
-      </c>
-      <c r="N11">
-        <v>8.937851999999999</v>
-      </c>
-      <c r="O11">
-        <v>0.8570951836360194</v>
-      </c>
-      <c r="P11">
-        <v>0.8570951836360196</v>
-      </c>
-      <c r="Q11">
-        <v>1.250085718317334</v>
-      </c>
-      <c r="R11">
-        <v>11.250771464856</v>
-      </c>
-      <c r="S11">
-        <v>0.1331875031099085</v>
-      </c>
-      <c r="T11">
-        <v>0.1331875031099085</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.4195926666666667</v>
-      </c>
-      <c r="H12">
-        <v>1.258778</v>
-      </c>
-      <c r="I12">
-        <v>0.1553940631714819</v>
-      </c>
-      <c r="J12">
-        <v>0.1553940631714819</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.3440976666666667</v>
-      </c>
-      <c r="N12">
-        <v>1.032293</v>
-      </c>
-      <c r="O12">
-        <v>0.09899172176952332</v>
-      </c>
-      <c r="P12">
-        <v>0.09899172176952334</v>
-      </c>
-      <c r="Q12">
-        <v>0.1443808575504445</v>
-      </c>
-      <c r="R12">
-        <v>1.299427717954</v>
-      </c>
-      <c r="S12">
-        <v>0.01538272586610706</v>
-      </c>
-      <c r="T12">
-        <v>0.01538272586610707</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.4195926666666667</v>
-      </c>
-      <c r="H13">
-        <v>1.258778</v>
-      </c>
-      <c r="I13">
-        <v>0.1553940631714819</v>
-      </c>
-      <c r="J13">
-        <v>0.1553940631714819</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.09445066666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.283352</v>
-      </c>
-      <c r="O13">
-        <v>0.02717203579491285</v>
-      </c>
-      <c r="P13">
-        <v>0.02717203579491285</v>
-      </c>
-      <c r="Q13">
-        <v>0.03963080709511112</v>
-      </c>
-      <c r="R13">
-        <v>0.356677263856</v>
-      </c>
-      <c r="S13">
-        <v>0.004222373046812453</v>
-      </c>
-      <c r="T13">
-        <v>0.004222373046812454</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.3064243333333334</v>
-      </c>
-      <c r="H14">
-        <v>0.919273</v>
-      </c>
-      <c r="I14">
-        <v>0.1134827321686887</v>
-      </c>
-      <c r="J14">
-        <v>0.1134827321686887</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.05819233333333334</v>
-      </c>
-      <c r="N14">
-        <v>0.174577</v>
-      </c>
-      <c r="O14">
-        <v>0.01674105879954439</v>
-      </c>
-      <c r="P14">
-        <v>0.01674105879954439</v>
-      </c>
-      <c r="Q14">
-        <v>0.01783154694677778</v>
-      </c>
-      <c r="R14">
-        <v>0.160483922521</v>
-      </c>
-      <c r="S14">
-        <v>0.001899821091968965</v>
-      </c>
-      <c r="T14">
-        <v>0.001899821091968965</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.3064243333333334</v>
-      </c>
-      <c r="H15">
-        <v>0.919273</v>
-      </c>
-      <c r="I15">
-        <v>0.1134827321686887</v>
-      </c>
-      <c r="J15">
-        <v>0.1134827321686887</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2.979284</v>
-      </c>
-      <c r="N15">
-        <v>8.937851999999999</v>
-      </c>
-      <c r="O15">
-        <v>0.8570951836360194</v>
-      </c>
-      <c r="P15">
-        <v>0.8570951836360196</v>
-      </c>
-      <c r="Q15">
-        <v>0.9129251135106666</v>
-      </c>
-      <c r="R15">
-        <v>8.216326021596</v>
-      </c>
-      <c r="S15">
-        <v>0.09726550316763946</v>
-      </c>
-      <c r="T15">
-        <v>0.09726550316763947</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.3064243333333334</v>
-      </c>
-      <c r="H16">
-        <v>0.919273</v>
-      </c>
-      <c r="I16">
-        <v>0.1134827321686887</v>
-      </c>
-      <c r="J16">
-        <v>0.1134827321686887</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.3440976666666667</v>
-      </c>
-      <c r="N16">
-        <v>1.032293</v>
-      </c>
-      <c r="O16">
-        <v>0.09899172176952332</v>
-      </c>
-      <c r="P16">
-        <v>0.09899172176952334</v>
-      </c>
-      <c r="Q16">
-        <v>0.1054398981098889</v>
-      </c>
-      <c r="R16">
-        <v>0.9489590829890001</v>
-      </c>
-      <c r="S16">
-        <v>0.01123385104848817</v>
-      </c>
-      <c r="T16">
-        <v>0.01123385104848817</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.3064243333333334</v>
-      </c>
-      <c r="H17">
-        <v>0.919273</v>
-      </c>
-      <c r="I17">
-        <v>0.1134827321686887</v>
-      </c>
-      <c r="J17">
-        <v>0.1134827321686887</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.09445066666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.283352</v>
-      </c>
-      <c r="O17">
-        <v>0.02717203579491285</v>
-      </c>
-      <c r="P17">
-        <v>0.02717203579491285</v>
-      </c>
-      <c r="Q17">
-        <v>0.02894198256622222</v>
-      </c>
-      <c r="R17">
-        <v>0.260477843096</v>
-      </c>
-      <c r="S17">
-        <v>0.003083556860592117</v>
-      </c>
-      <c r="T17">
-        <v>0.003083556860592117</v>
+        <v>0.0167354849361841</v>
       </c>
     </row>
   </sheetData>
